--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1535086.646209481</v>
+        <v>-1537704.483436108</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>323.8388427438204</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>316.3854003641041</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>1.781160222249216</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>96.88241306657224</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.98497099623586</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>391.5534032709326</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>20.90049365549007</v>
+        <v>191.8128845006356</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>200.4331707528085</v>
       </c>
       <c r="V8" t="n">
-        <v>154.5318633148429</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.73332682041249</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.7193406055813</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.981188826526</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3794,10 +3794,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>848.1875530107163</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>848.1875530107163</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>848.1875530107163</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>848.1875530107163</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>437.2016482211088</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.787393074838</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080694</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1611.069229423535</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1442.133046495629</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1292.016407083293</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2464.478305100587</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>2241.499824295322</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2241.499824295322</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>2241.499824295322</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>2241.499824295322</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>2013.510273397305</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y4" t="n">
-        <v>1792.717694253775</v>
+        <v>53.04593830764878</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.057359339774</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1659.057359339774</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.791660733024</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>915.0034081347794</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>504.0175033451719</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>2045.657199403896</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.2582702654239</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1395.313456030642</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>1105.896285993681</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>877.9067350956636</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.9067350956636</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2805.691885182988</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2452.923229912873</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2079.457471651794</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4884,7 +4884,7 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.724875630924</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>573.7886927030171</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>423.6720532906813</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>275.7589597082882</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>128.8690122103779</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>128.8690122103779</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5174547744541</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>742.724875630924</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,7 +5987,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,16 +6315,16 @@
         <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6683,34 +6683,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7555,10 +7555,10 @@
         <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143854</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>58.89499891966017</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>402.7664347977579</v>
       </c>
       <c r="G2" t="n">
-        <v>95.16230240884988</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>87.13472298519665</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.0508199596881</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.11263957635597</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016461</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455268</v>
+        <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26329,31 +26329,31 @@
         <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
+        <v>141250.6549457512</v>
+      </c>
+      <c r="J2" t="n">
         <v>141250.6549457511</v>
-      </c>
-      <c r="J2" t="n">
-        <v>141250.654945751</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>68537.81069968615</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47790.09282518996</v>
+        <v>47790.09282518988</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="I4" t="n">
+        <v>9947.144321768916</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768919</v>
-      </c>
       <c r="K4" t="n">
-        <v>17938.00358486242</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486243</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
         <v>17938.00358486238</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486239</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1139434.804995427</v>
+        <v>-1139829.625936581</v>
       </c>
       <c r="C6" t="n">
-        <v>-256824.5515403698</v>
+        <v>-256824.5515403696</v>
       </c>
       <c r="D6" t="n">
-        <v>-53385.80992826387</v>
+        <v>-53385.8099282639</v>
       </c>
       <c r="E6" t="n">
-        <v>-295231.4810072801</v>
+        <v>-295266.2189327159</v>
       </c>
       <c r="F6" t="n">
-        <v>30180.98080007501</v>
+        <v>30146.24287463937</v>
       </c>
       <c r="G6" t="n">
-        <v>30180.98080007501</v>
+        <v>30146.24287463934</v>
       </c>
       <c r="H6" t="n">
-        <v>30180.98080007501</v>
+        <v>30146.24287463937</v>
       </c>
       <c r="I6" t="n">
-        <v>30180.98080007506</v>
+        <v>30146.24287463946</v>
       </c>
       <c r="J6" t="n">
-        <v>-137424.1970099076</v>
+        <v>-137458.9349353432</v>
       </c>
       <c r="K6" t="n">
-        <v>-45957.62041221432</v>
+        <v>-45957.62041221427</v>
       </c>
       <c r="L6" t="n">
-        <v>22580.19028747188</v>
+        <v>22580.19028747187</v>
       </c>
       <c r="M6" t="n">
-        <v>-62474.83764804008</v>
+        <v>-62474.83764804002</v>
       </c>
       <c r="N6" t="n">
-        <v>22580.19028747184</v>
+        <v>22580.19028747189</v>
       </c>
       <c r="O6" t="n">
-        <v>22580.19028747188</v>
+        <v>22580.19028747189</v>
       </c>
       <c r="P6" t="n">
-        <v>3152.472293840139</v>
+        <v>3152.47229384011</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.109610943953498</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>213.8838295772087</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>97.78004729516525</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.7488706672447</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>19.36832238252089</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>231.2371496683379</v>
+        <v>60.32475882319241</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.56200120609347</v>
       </c>
       <c r="V8" t="n">
-        <v>173.220395155292</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800743</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>83.0216880939083</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,13 +28798,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30514,10 +30514,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,16 +31853,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>163.1438255932938</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34790,16 +34790,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>600.455114847638</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452399</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>20.54758114884936</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
